--- a/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9668" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9686" uniqueCount="1414">
   <si>
     <t>id</t>
   </si>
@@ -4223,6 +4223,57 @@
   </si>
   <si>
     <t>Verdure</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>onnivore</t>
+  </si>
+  <si>
+    <t>lactose</t>
+  </si>
+  <si>
+    <t>gluten</t>
+  </si>
+  <si>
+    <t>vegetariano</t>
+  </si>
+  <si>
+    <t>vegano</t>
+  </si>
+  <si>
+    <t>onnivoro</t>
+  </si>
+  <si>
+    <t>lattosio</t>
+  </si>
+  <si>
+    <t>glutine</t>
+  </si>
+  <si>
+    <t>Primo Seminario sui Meze</t>
+  </si>
+  <si>
+    <t>Secondo Seminario sui Meze</t>
+  </si>
+  <si>
+    <t>Terzo Seminario sui Meze</t>
+  </si>
+  <si>
+    <t>In the kitchen beyond borders</t>
+  </si>
+  <si>
+    <t>peperoncino piccante rosso</t>
+  </si>
+  <si>
+    <t>padellina</t>
+  </si>
+  <si>
+    <t>padella da frittura</t>
   </si>
 </sst>
 </file>
@@ -4813,9 +4864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G79"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9866,7 +9915,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10072,7 +10121,7 @@
   <dimension ref="A1:F896"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28314,7 +28363,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28409,8 +28458,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>457</v>
+      <c r="B5" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>455</v>
@@ -29118,8 +29167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126:B177"/>
+    <sheetView topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31082,7 +31131,7 @@
   <dimension ref="A1:AMK241"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36650,10 +36699,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J529"/>
+  <dimension ref="A1:J538"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40927,7 +40976,7 @@
         <v>419</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1046</v>
+        <v>1413</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>1080</v>
@@ -44305,7 +44354,7 @@
         <v>162</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>976</v>
+        <v>1411</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>784</v>
@@ -45173,7 +45222,7 @@
         <v>427</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1046</v>
+        <v>1412</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>1080</v>
@@ -47266,6 +47315,78 @@
       </c>
       <c r="D529" s="4" t="s">
         <v>698</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9686" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9690" uniqueCount="1425">
   <si>
     <t>id</t>
   </si>
@@ -4298,6 +4298,15 @@
   </si>
   <si>
     <t>asia/thailand/thai-chicken-in-green-curry</t>
+  </si>
+  <si>
+    <t>seminario</t>
+  </si>
+  <si>
+    <t>charity dinner</t>
+  </si>
+  <si>
+    <t>cena di beneficenza</t>
   </si>
 </sst>
 </file>
@@ -4888,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -36762,10 +36771,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J538"/>
+  <dimension ref="A1:J540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47450,6 +47459,22 @@
       </c>
       <c r="D538" s="4" t="s">
         <v>625</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>1424</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Event" sheetId="3" r:id="rId4"/>
     <sheet name="RecipeEvents" sheetId="4" r:id="rId5"/>
     <sheet name="RecipeTools" sheetId="5" r:id="rId6"/>
-    <sheet name="Ingredients" sheetId="6" r:id="rId7"/>
+    <sheet name="Ingredients" sheetId="16" r:id="rId7"/>
     <sheet name="Translation" sheetId="7" r:id="rId8"/>
     <sheet name="Countries" sheetId="8" r:id="rId9"/>
     <sheet name="RecipeCategories" sheetId="10" r:id="rId10"/>
@@ -31200,43 +31200,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK241"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="4"/>
-    <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="13.5703125" style="1"/>
-    <col min="4" max="5" width="14.7109375" style="1"/>
-    <col min="6" max="6" width="16.140625" style="1"/>
-    <col min="7" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="1025" width="9.140625" style="1"/>
+    <col min="1" max="7" width="25.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -31259,7 +31253,7 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -31267,22 +31261,22 @@
       <c r="A3" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -31290,22 +31284,22 @@
       <c r="A4" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31313,22 +31307,22 @@
       <c r="A5" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31336,22 +31330,22 @@
       <c r="A6" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -31359,22 +31353,22 @@
       <c r="A7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -31382,22 +31376,22 @@
       <c r="A8" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31405,22 +31399,22 @@
       <c r="A9" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -31428,22 +31422,22 @@
       <c r="A10" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -31451,22 +31445,22 @@
       <c r="A11" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -31474,22 +31468,22 @@
       <c r="A12" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31497,22 +31491,22 @@
       <c r="A13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31520,22 +31514,22 @@
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -31543,22 +31537,22 @@
       <c r="A15" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31566,22 +31560,22 @@
       <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -31589,22 +31583,22 @@
       <c r="A17" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31612,22 +31606,22 @@
       <c r="A18" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31635,22 +31629,22 @@
       <c r="A19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31658,22 +31652,22 @@
       <c r="A20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31681,22 +31675,22 @@
       <c r="A21" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31704,22 +31698,22 @@
       <c r="A22" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31727,22 +31721,22 @@
       <c r="A23" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31750,22 +31744,22 @@
       <c r="A24" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -31773,22 +31767,22 @@
       <c r="A25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -31796,22 +31790,22 @@
       <c r="A26" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -31819,22 +31813,22 @@
       <c r="A27" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -31842,22 +31836,22 @@
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -31865,22 +31859,22 @@
       <c r="A29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -31888,22 +31882,22 @@
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31911,22 +31905,22 @@
       <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -31934,22 +31928,22 @@
       <c r="A32" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -31957,22 +31951,22 @@
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -31980,22 +31974,22 @@
       <c r="A34" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -32003,22 +31997,22 @@
       <c r="A35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -32026,22 +32020,22 @@
       <c r="A36" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32049,22 +32043,22 @@
       <c r="A37" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -32072,22 +32066,22 @@
       <c r="A38" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -32095,22 +32089,22 @@
       <c r="A39" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -32118,22 +32112,22 @@
       <c r="A40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -32141,22 +32135,22 @@
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -32164,22 +32158,22 @@
       <c r="A42" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -32187,22 +32181,22 @@
       <c r="A43" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -32210,22 +32204,22 @@
       <c r="A44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="D44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -32233,22 +32227,22 @@
       <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -32256,22 +32250,22 @@
       <c r="A46" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -32279,22 +32273,22 @@
       <c r="A47" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32302,22 +32296,22 @@
       <c r="A48" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32325,22 +32319,22 @@
       <c r="A49" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32348,22 +32342,22 @@
       <c r="A50" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32371,22 +32365,22 @@
       <c r="A51" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32394,22 +32388,22 @@
       <c r="A52" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32417,22 +32411,22 @@
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32440,22 +32434,22 @@
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32463,22 +32457,22 @@
       <c r="A55" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -32486,22 +32480,22 @@
       <c r="A56" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -32509,22 +32503,22 @@
       <c r="A57" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="B57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32532,22 +32526,22 @@
       <c r="A58" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32555,22 +32549,22 @@
       <c r="A59" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32578,22 +32572,22 @@
       <c r="A60" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -32601,22 +32595,22 @@
       <c r="A61" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -32624,22 +32618,22 @@
       <c r="A62" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -32647,22 +32641,22 @@
       <c r="A63" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -32670,22 +32664,22 @@
       <c r="A64" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="B64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -32693,22 +32687,22 @@
       <c r="A65" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -32716,22 +32710,22 @@
       <c r="A66" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="B66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32739,22 +32733,22 @@
       <c r="A67" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="B67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32762,22 +32756,22 @@
       <c r="A68" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="B68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32785,22 +32779,22 @@
       <c r="A69" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32808,22 +32802,22 @@
       <c r="A70" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="B70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32831,22 +32825,22 @@
       <c r="A71" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -32854,22 +32848,22 @@
       <c r="A72" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -32877,22 +32871,22 @@
       <c r="A73" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="B73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32900,22 +32894,22 @@
       <c r="A74" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="B74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32923,22 +32917,22 @@
       <c r="A75" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="B75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32946,22 +32940,22 @@
       <c r="A76" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="B76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32969,22 +32963,22 @@
       <c r="A77" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="B77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32992,22 +32986,22 @@
       <c r="A78" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="B78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -33015,22 +33009,22 @@
       <c r="A79" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="B79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33038,22 +33032,22 @@
       <c r="A80" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33061,22 +33055,22 @@
       <c r="A81" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33084,22 +33078,22 @@
       <c r="A82" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -33107,22 +33101,22 @@
       <c r="A83" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="4" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -33130,22 +33124,22 @@
       <c r="A84" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="4" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -33153,22 +33147,22 @@
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="B85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33176,22 +33170,22 @@
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -33199,22 +33193,22 @@
       <c r="A87" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -33222,22 +33216,22 @@
       <c r="A88" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="E88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -33245,22 +33239,22 @@
       <c r="A89" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="B89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="E89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -33268,22 +33262,22 @@
       <c r="A90" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="B90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -33291,22 +33285,22 @@
       <c r="A91" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -33314,22 +33308,22 @@
       <c r="A92" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="B92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -33337,22 +33331,22 @@
       <c r="A93" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="B93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33360,22 +33354,22 @@
       <c r="A94" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33383,22 +33377,22 @@
       <c r="A95" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="1" t="s">
+      <c r="B95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33406,22 +33400,22 @@
       <c r="A96" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="B96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33429,22 +33423,22 @@
       <c r="A97" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="B97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33452,22 +33446,22 @@
       <c r="A98" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="B98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33475,22 +33469,22 @@
       <c r="A99" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="B99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33498,22 +33492,22 @@
       <c r="A100" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="1" t="s">
+      <c r="B100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33521,22 +33515,22 @@
       <c r="A101" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="1" t="s">
+      <c r="B101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33544,22 +33538,22 @@
       <c r="A102" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="4" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -33567,22 +33561,22 @@
       <c r="A103" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="B103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33590,22 +33584,22 @@
       <c r="A104" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="B104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33613,22 +33607,22 @@
       <c r="A105" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="B105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33636,22 +33630,22 @@
       <c r="A106" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="B106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33659,22 +33653,22 @@
       <c r="A107" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="B107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33682,22 +33676,22 @@
       <c r="A108" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -33705,22 +33699,22 @@
       <c r="A109" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="B109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33728,22 +33722,22 @@
       <c r="A110" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="1" t="s">
+      <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33751,22 +33745,22 @@
       <c r="A111" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="B111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33774,22 +33768,22 @@
       <c r="A112" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="B112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -33797,22 +33791,22 @@
       <c r="A113" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="B113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33820,22 +33814,22 @@
       <c r="A114" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="B114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33843,22 +33837,22 @@
       <c r="A115" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="1" t="s">
+      <c r="B115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33866,22 +33860,22 @@
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="B116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33889,22 +33883,22 @@
       <c r="A117" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="B117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33912,22 +33906,22 @@
       <c r="A118" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="B118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33935,22 +33929,22 @@
       <c r="A119" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="1" t="s">
+      <c r="B119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33958,22 +33952,22 @@
       <c r="A120" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="1" t="s">
+      <c r="B120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -33981,22 +33975,22 @@
       <c r="A121" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="1" t="s">
+      <c r="B121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34004,22 +33998,22 @@
       <c r="A122" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="B122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34027,22 +34021,22 @@
       <c r="A123" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="B123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34050,22 +34044,22 @@
       <c r="A124" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="B124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -34073,22 +34067,22 @@
       <c r="A125" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="B125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34096,22 +34090,22 @@
       <c r="A126" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="B126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -34119,22 +34113,22 @@
       <c r="A127" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="B127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -34142,22 +34136,22 @@
       <c r="A128" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="1" t="s">
+      <c r="B128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34165,22 +34159,22 @@
       <c r="A129" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="B129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34188,22 +34182,22 @@
       <c r="A130" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="B130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34211,22 +34205,22 @@
       <c r="A131" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="D131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -34234,22 +34228,22 @@
       <c r="A132" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="B132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34257,22 +34251,22 @@
       <c r="A133" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="B133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34280,22 +34274,22 @@
       <c r="A134" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="B134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34303,22 +34297,22 @@
       <c r="A135" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="B135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34326,22 +34320,22 @@
       <c r="A136" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="B136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34349,22 +34343,22 @@
       <c r="A137" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="B137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34372,22 +34366,22 @@
       <c r="A138" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34395,22 +34389,22 @@
       <c r="A139" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="B139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -34418,22 +34412,22 @@
       <c r="A140" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="B140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34441,22 +34435,22 @@
       <c r="A141" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="B141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34464,22 +34458,22 @@
       <c r="A142" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="1" t="s">
+      <c r="B142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34487,22 +34481,22 @@
       <c r="A143" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="B143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34510,22 +34504,22 @@
       <c r="A144" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" s="1" t="s">
+      <c r="B144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -34533,22 +34527,22 @@
       <c r="A145" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="D145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -34556,22 +34550,22 @@
       <c r="A146" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -34579,22 +34573,22 @@
       <c r="A147" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="B147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34602,22 +34596,22 @@
       <c r="A148" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="D148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -34625,22 +34619,22 @@
       <c r="A149" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="D149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -34648,22 +34642,22 @@
       <c r="A150" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="D150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -34671,22 +34665,22 @@
       <c r="A151" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="B151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -34694,22 +34688,22 @@
       <c r="A152" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="1" t="s">
+      <c r="B152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -34717,22 +34711,22 @@
       <c r="A153" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="1" t="s">
+      <c r="B153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34740,22 +34734,22 @@
       <c r="A154" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="B154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34763,22 +34757,22 @@
       <c r="A155" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="B155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34786,22 +34780,22 @@
       <c r="A156" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="B156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34809,22 +34803,22 @@
       <c r="A157" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="B157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34832,22 +34826,22 @@
       <c r="A158" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="B158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -34855,22 +34849,22 @@
       <c r="A159" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="B159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="4" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34878,22 +34872,22 @@
       <c r="A160" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="1" t="s">
+      <c r="B160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -34901,22 +34895,22 @@
       <c r="A161" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="1" t="s">
+      <c r="B161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -34924,22 +34918,22 @@
       <c r="A162" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="1" t="s">
+      <c r="D162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -34947,22 +34941,22 @@
       <c r="A163" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="1" t="s">
+      <c r="B163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -34970,22 +34964,22 @@
       <c r="A164" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="B164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -34993,22 +34987,22 @@
       <c r="A165" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" s="1" t="s">
+      <c r="B165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35016,22 +35010,22 @@
       <c r="A166" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="1" t="s">
+      <c r="B166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" s="4" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -35039,22 +35033,22 @@
       <c r="A167" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="B167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35062,22 +35056,22 @@
       <c r="A168" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="B168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -35085,22 +35079,22 @@
       <c r="A169" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="1" t="s">
+      <c r="B169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -35108,22 +35102,22 @@
       <c r="A170" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="B170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -35131,22 +35125,22 @@
       <c r="A171" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="B171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -35154,22 +35148,22 @@
       <c r="A172" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="B172" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="E172" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35177,22 +35171,22 @@
       <c r="A173" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="B173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35200,22 +35194,22 @@
       <c r="A174" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="B174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -35223,22 +35217,22 @@
       <c r="A175" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" s="1" t="s">
+      <c r="B175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="4" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35246,22 +35240,22 @@
       <c r="A176" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" s="1" t="s">
+      <c r="B176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35269,22 +35263,22 @@
       <c r="A177" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="1" t="s">
+      <c r="B177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35292,22 +35286,22 @@
       <c r="A178" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="1" t="s">
+      <c r="B178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35315,22 +35309,22 @@
       <c r="A179" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" s="1" t="s">
+      <c r="B179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35338,22 +35332,22 @@
       <c r="A180" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="1" t="s">
+      <c r="D180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -35361,22 +35355,22 @@
       <c r="A181" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="1" t="s">
+      <c r="B181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35384,22 +35378,22 @@
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="B182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35407,22 +35401,22 @@
       <c r="A183" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="1" t="s">
+      <c r="B183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35430,22 +35424,22 @@
       <c r="A184" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="B184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="1" t="s">
+      <c r="E184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -35453,22 +35447,22 @@
       <c r="A185" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="B185" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="D185" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -35476,22 +35470,22 @@
       <c r="A186" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="1" t="s">
+      <c r="B186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35499,22 +35493,22 @@
       <c r="A187" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" s="1" t="s">
+      <c r="B187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35522,22 +35516,22 @@
       <c r="A188" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" s="1" t="s">
+      <c r="D188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -35545,22 +35539,22 @@
       <c r="A189" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" s="1" t="s">
+      <c r="B189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -35568,22 +35562,22 @@
       <c r="A190" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" s="1" t="s">
+      <c r="D190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -35591,22 +35585,22 @@
       <c r="A191" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="B191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35614,22 +35608,22 @@
       <c r="A192" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="B192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="E192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -35637,22 +35631,22 @@
       <c r="A193" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="B193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" s="1" t="s">
+      <c r="E193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -35660,22 +35654,22 @@
       <c r="A194" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" s="1" t="s">
+      <c r="B194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -35683,22 +35677,22 @@
       <c r="A195" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="1" t="s">
+      <c r="B195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35706,22 +35700,22 @@
       <c r="A196" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="1" t="s">
+      <c r="D196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -35729,22 +35723,22 @@
       <c r="A197" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="B197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35752,22 +35746,22 @@
       <c r="A198" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="1" t="s">
+      <c r="B198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35775,22 +35769,22 @@
       <c r="A199" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" s="1" t="s">
+      <c r="B199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35798,22 +35792,22 @@
       <c r="A200" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="B200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -35821,22 +35815,22 @@
       <c r="A201" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="B201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -35844,22 +35838,22 @@
       <c r="A202" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="1" t="s">
+      <c r="B202" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -35867,22 +35861,22 @@
       <c r="A203" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="1" t="s">
+      <c r="B203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35890,22 +35884,22 @@
       <c r="A204" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="1" t="s">
+      <c r="B204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -35913,22 +35907,22 @@
       <c r="A205" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="1" t="s">
+      <c r="B205" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" s="1" t="s">
+      <c r="E205" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" s="4" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -35936,22 +35930,22 @@
       <c r="A206" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" s="1" t="s">
+      <c r="B206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -35959,22 +35953,22 @@
       <c r="A207" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" s="1" t="s">
+      <c r="B207" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -35982,22 +35976,22 @@
       <c r="A208" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" s="1" t="s">
+      <c r="B208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36005,22 +35999,22 @@
       <c r="A209" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="1" t="s">
+      <c r="B209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -36028,22 +36022,22 @@
       <c r="A210" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="1" t="s">
+      <c r="B210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -36051,22 +36045,22 @@
       <c r="A211" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F211" s="1" t="s">
+      <c r="B211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -36074,22 +36068,22 @@
       <c r="A212" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" s="1" t="s">
+      <c r="B212" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36097,22 +36091,22 @@
       <c r="A213" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="B213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="1" t="s">
+      <c r="D213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -36120,22 +36114,22 @@
       <c r="A214" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F214" s="1" t="s">
+      <c r="D214" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36158,7 +36152,7 @@
       <c r="F215" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36181,7 +36175,7 @@
       <c r="F216" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -36204,7 +36198,7 @@
       <c r="F217" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36227,7 +36221,7 @@
       <c r="F218" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36250,7 +36244,7 @@
       <c r="F219" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36273,7 +36267,7 @@
       <c r="F220" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -36296,7 +36290,7 @@
       <c r="F221" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36319,7 +36313,7 @@
       <c r="F222" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36342,7 +36336,7 @@
       <c r="F223" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36365,7 +36359,7 @@
       <c r="F224" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="4" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -36388,7 +36382,7 @@
       <c r="F225" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36411,7 +36405,7 @@
       <c r="F226" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36434,7 +36428,7 @@
       <c r="F227" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G227" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -36457,7 +36451,7 @@
       <c r="F228" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -36480,7 +36474,7 @@
       <c r="F229" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -36503,7 +36497,7 @@
       <c r="F230" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -36526,7 +36520,7 @@
       <c r="F231" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -36549,7 +36543,7 @@
       <c r="F232" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -36572,7 +36566,7 @@
       <c r="F233" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="4" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -36595,7 +36589,7 @@
       <c r="F234" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -36618,7 +36612,7 @@
       <c r="F235" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G235" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -36641,7 +36635,7 @@
       <c r="F236" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G236" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -36664,7 +36658,7 @@
       <c r="F237" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -36687,7 +36681,7 @@
       <c r="F238" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="G238" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -36710,7 +36704,7 @@
       <c r="F239" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -36733,7 +36727,7 @@
       <c r="F240" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -36756,16 +36750,12 @@
       <c r="F241" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="G241" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:G241">
-    <sortCondition ref="A1:A242"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -36773,7 +36763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+    <sheetView topLeftCell="A529" workbookViewId="0">
       <selection activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>

--- a/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10179" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10179" uniqueCount="1656">
   <si>
     <t>id</t>
   </si>
@@ -4998,6 +4998,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>red chili</t>
   </si>
 </sst>
 </file>
@@ -5612,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9095,7 +9098,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1138</v>
+        <v>539</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>1296</v>
@@ -9432,7 +9435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -32124,7 +32127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37683,8 +37688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J767"/>
   <sheetViews>
-    <sheetView topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="A529" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45337,7 +45342,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>398</v>
+        <v>1655</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>901</v>

--- a/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,17 @@
     <sheet name="Ingredients" sheetId="16" r:id="rId7"/>
     <sheet name="Translation" sheetId="7" r:id="rId8"/>
     <sheet name="Countries" sheetId="8" r:id="rId9"/>
-    <sheet name="RecipeCategories" sheetId="10" r:id="rId10"/>
-    <sheet name="CookingTechniques" sheetId="11" r:id="rId11"/>
-    <sheet name="Categories" sheetId="17" r:id="rId12"/>
-    <sheet name="FcpUser" sheetId="12" r:id="rId13"/>
-    <sheet name="AuthorRecipe" sheetId="13" r:id="rId14"/>
-    <sheet name="Tools" sheetId="9" r:id="rId15"/>
+    <sheet name="Categories" sheetId="17" r:id="rId10"/>
+    <sheet name="FcpUser" sheetId="12" r:id="rId11"/>
+    <sheet name="AuthorRecipe" sheetId="13" r:id="rId12"/>
+    <sheet name="Tools" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10179" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10164" uniqueCount="1654">
   <si>
     <t>id</t>
   </si>
@@ -3465,12 +3463,6 @@
   </si>
   <si>
     <t>region</t>
-  </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>cooking_technique_id</t>
   </si>
   <si>
     <t>tool_id</t>
@@ -5697,7 +5689,7 @@
         <v>551</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D2" s="17">
         <v>30</v>
@@ -5743,7 +5735,7 @@
         <v>549</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D3" s="17">
         <v>5</v>
@@ -5789,7 +5781,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D4" s="18">
         <v>40</v>
@@ -5835,7 +5827,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D5" s="18">
         <v>30</v>
@@ -5881,7 +5873,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D6" s="18">
         <v>15</v>
@@ -5927,7 +5919,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D7" s="18">
         <v>50</v>
@@ -5973,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="18">
         <v>30</v>
@@ -6019,7 +6011,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D9" s="18">
         <v>15</v>
@@ -6065,7 +6057,7 @@
         <v>553</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D10" s="18">
         <v>60</v>
@@ -6111,7 +6103,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D11" s="17">
         <v>5</v>
@@ -6157,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D12" s="17">
         <v>30</v>
@@ -6203,7 +6195,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D13" s="17">
         <v>60</v>
@@ -6249,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D14" s="18">
         <v>60</v>
@@ -6295,7 +6287,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D15" s="17">
         <v>30</v>
@@ -6341,7 +6333,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D16" s="18">
         <v>20</v>
@@ -6387,7 +6379,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D17" s="18">
         <v>30</v>
@@ -6433,7 +6425,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D18" s="17">
         <v>40</v>
@@ -6479,7 +6471,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D19" s="17">
         <v>15</v>
@@ -6525,7 +6517,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D20" s="17">
         <v>40</v>
@@ -6571,7 +6563,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D21" s="18">
         <v>60</v>
@@ -6617,7 +6609,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D22" s="18">
         <v>40</v>
@@ -6663,7 +6655,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D23" s="18">
         <v>50</v>
@@ -6709,7 +6701,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D24" s="18">
         <v>40</v>
@@ -6755,7 +6747,7 @@
         <v>70</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D25" s="18">
         <v>40</v>
@@ -6801,7 +6793,7 @@
         <v>550</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D26" s="18">
         <v>20</v>
@@ -6847,7 +6839,7 @@
         <v>74</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D27" s="18">
         <v>40</v>
@@ -6893,7 +6885,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D28" s="18">
         <v>30</v>
@@ -6939,7 +6931,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D29" s="18">
         <v>40</v>
@@ -6985,7 +6977,7 @@
         <v>78</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D30" s="18">
         <v>60</v>
@@ -7031,7 +7023,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D31" s="18">
         <v>40</v>
@@ -7077,7 +7069,7 @@
         <v>82</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D32" s="18">
         <v>90</v>
@@ -7169,7 +7161,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D34" s="18">
         <v>40</v>
@@ -7215,7 +7207,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D35" s="18">
         <v>60</v>
@@ -7261,7 +7253,7 @@
         <v>89</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D36" s="18">
         <v>30</v>
@@ -7445,7 +7437,7 @@
         <v>96</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D40" s="18">
         <v>40</v>
@@ -7491,7 +7483,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D41" s="18">
         <v>60</v>
@@ -7537,7 +7529,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D42" s="18">
         <v>80</v>
@@ -7583,7 +7575,7 @@
         <v>103</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D43" s="18">
         <v>15</v>
@@ -7629,7 +7621,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D44" s="18">
         <v>30</v>
@@ -7675,7 +7667,7 @@
         <v>552</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D45" s="18">
         <v>90</v>
@@ -7721,7 +7713,7 @@
         <v>109</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D46" s="18">
         <v>60</v>
@@ -7767,7 +7759,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D47" s="18">
         <v>10</v>
@@ -7813,7 +7805,7 @@
         <v>601</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D48" s="18">
         <v>30</v>
@@ -7859,7 +7851,7 @@
         <v>604</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D49" s="18">
         <v>90</v>
@@ -7905,7 +7897,7 @@
         <v>555</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D50" s="18">
         <v>90</v>
@@ -7951,7 +7943,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D51" s="18">
         <v>10</v>
@@ -7997,7 +7989,7 @@
         <v>116</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D52" s="18">
         <v>10</v>
@@ -8135,7 +8127,7 @@
         <v>122</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D55" s="18">
         <v>30</v>
@@ -8181,7 +8173,7 @@
         <v>123</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D56" s="18">
         <v>60</v>
@@ -8227,7 +8219,7 @@
         <v>124</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D57" s="18">
         <v>150</v>
@@ -8273,7 +8265,7 @@
         <v>125</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D58" s="18">
         <v>90</v>
@@ -8319,7 +8311,7 @@
         <v>127</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D59" s="18">
         <v>90</v>
@@ -8365,7 +8357,7 @@
         <v>129</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D60" s="18">
         <v>40</v>
@@ -8411,7 +8403,7 @@
         <v>131</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D61" s="18">
         <v>60</v>
@@ -8457,7 +8449,7 @@
         <v>134</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D62" s="18">
         <v>30</v>
@@ -8503,7 +8495,7 @@
         <v>453</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D63" s="4">
         <v>40</v>
@@ -8549,7 +8541,7 @@
         <v>461</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D64" s="4">
         <v>45</v>
@@ -8595,7 +8587,7 @@
         <v>468</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D65" s="4">
         <v>45</v>
@@ -8641,7 +8633,7 @@
         <v>472</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D66" s="4">
         <v>45</v>
@@ -8687,7 +8679,7 @@
         <v>476</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D67" s="4">
         <v>15</v>
@@ -8733,7 +8725,7 @@
         <v>478</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D68" s="4">
         <v>60</v>
@@ -8779,7 +8771,7 @@
         <v>480</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D69" s="4">
         <v>90</v>
@@ -8825,7 +8817,7 @@
         <v>484</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D70" s="4">
         <v>45</v>
@@ -8871,7 +8863,7 @@
         <v>485</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D71" s="4">
         <v>90</v>
@@ -8917,7 +8909,7 @@
         <v>491</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D72" s="4">
         <v>45</v>
@@ -8963,7 +8955,7 @@
         <v>497</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D73" s="4">
         <v>45</v>
@@ -9009,7 +9001,7 @@
         <v>505</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D74" s="4">
         <v>60</v>
@@ -9055,7 +9047,7 @@
         <v>509</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D75" s="4">
         <v>45</v>
@@ -9101,7 +9093,7 @@
         <v>539</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D76" s="4">
         <v>75</v>
@@ -9147,7 +9139,7 @@
         <v>519</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D77" s="4">
         <v>45</v>
@@ -9193,7 +9185,7 @@
         <v>538</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D78" s="4">
         <v>45</v>
@@ -9239,7 +9231,7 @@
         <v>540</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D79" s="4">
         <v>45</v>
@@ -9288,155 +9280,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B1:B78">
-    <sortCondition ref="B1:B78"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,7 +9295,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>625</v>
@@ -9465,7 +9312,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9476,7 +9323,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9487,7 +9334,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9498,7 +9345,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9509,7 +9356,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9520,7 +9367,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9531,7 +9378,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9542,7 +9389,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9553,7 +9400,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9564,7 +9411,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9575,7 +9422,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9583,10 +9430,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9594,10 +9441,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9605,10 +9452,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9619,7 +9466,7 @@
         <v>411</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9627,10 +9474,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -9638,7 +9485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -9658,7 +9505,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1140</v>
@@ -9667,10 +9514,10 @@
         <v>1141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
@@ -9695,10 +9542,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>19</v>
@@ -9712,10 +9559,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -9729,10 +9576,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -9746,10 +9593,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -9766,7 +9613,7 @@
         <v>414</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
@@ -9780,7 +9627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
@@ -9798,13 +9645,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -10907,11 +10754,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10923,7 +10770,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -25211,13 +25058,13 @@
         <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29456,7 +29303,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>455</v>
@@ -32156,7 +32003,7 @@
         <v>452</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -32179,7 +32026,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -32202,7 +32049,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -32225,7 +32072,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -32248,7 +32095,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -32271,7 +32118,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -32294,7 +32141,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -32317,7 +32164,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -32340,7 +32187,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -32363,7 +32210,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -32386,7 +32233,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -32409,7 +32256,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -32432,7 +32279,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -32455,7 +32302,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -32478,7 +32325,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -32501,7 +32348,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -32524,7 +32371,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -32547,7 +32394,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -32570,7 +32417,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -32593,7 +32440,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -32616,7 +32463,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -32639,7 +32486,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -32662,7 +32509,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -32685,7 +32532,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -32708,7 +32555,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -32731,7 +32578,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -32754,7 +32601,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -32777,7 +32624,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -32800,7 +32647,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -32823,7 +32670,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -32846,7 +32693,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -32869,7 +32716,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -32892,7 +32739,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -32915,7 +32762,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -32938,7 +32785,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -32961,7 +32808,7 @@
         <v>19</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -32984,7 +32831,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -33007,7 +32854,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -33030,7 +32877,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -33053,7 +32900,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -33076,7 +32923,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -33099,7 +32946,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -33122,7 +32969,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -33145,7 +32992,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -33168,7 +33015,7 @@
         <v>23</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -33191,7 +33038,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -33214,7 +33061,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -33237,7 +33084,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -33260,7 +33107,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -33283,7 +33130,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -33306,7 +33153,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -33329,7 +33176,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -33352,7 +33199,7 @@
         <v>19</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -33375,7 +33222,7 @@
         <v>23</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -33398,7 +33245,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -33421,7 +33268,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -33444,7 +33291,7 @@
         <v>19</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -33467,7 +33314,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -33490,7 +33337,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -33513,7 +33360,7 @@
         <v>23</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -33536,7 +33383,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -33559,7 +33406,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -33582,7 +33429,7 @@
         <v>23</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -33605,7 +33452,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -33628,7 +33475,7 @@
         <v>23</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -33651,7 +33498,7 @@
         <v>19</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -33674,7 +33521,7 @@
         <v>19</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -33697,7 +33544,7 @@
         <v>19</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -33720,7 +33567,7 @@
         <v>19</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -33743,7 +33590,7 @@
         <v>19</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -33766,7 +33613,7 @@
         <v>19</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -33789,7 +33636,7 @@
         <v>19</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -33812,7 +33659,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -33835,7 +33682,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -33858,7 +33705,7 @@
         <v>23</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -33881,7 +33728,7 @@
         <v>23</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -33904,7 +33751,7 @@
         <v>23</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -33927,7 +33774,7 @@
         <v>23</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -33950,7 +33797,7 @@
         <v>19</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -33973,7 +33820,7 @@
         <v>19</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -33996,7 +33843,7 @@
         <v>19</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -34019,7 +33866,7 @@
         <v>23</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -34042,7 +33889,7 @@
         <v>23</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -34065,7 +33912,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -34088,7 +33935,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -34111,7 +33958,7 @@
         <v>23</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -34134,7 +33981,7 @@
         <v>23</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -34157,7 +34004,7 @@
         <v>23</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -34180,7 +34027,7 @@
         <v>23</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -34203,7 +34050,7 @@
         <v>23</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -34226,7 +34073,7 @@
         <v>23</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -34249,7 +34096,7 @@
         <v>23</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -34272,7 +34119,7 @@
         <v>23</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -34295,7 +34142,7 @@
         <v>19</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -34318,7 +34165,7 @@
         <v>19</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -34341,7 +34188,7 @@
         <v>23</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -34364,7 +34211,7 @@
         <v>19</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -34387,7 +34234,7 @@
         <v>19</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -34410,7 +34257,7 @@
         <v>19</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -34433,7 +34280,7 @@
         <v>19</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -34456,7 +34303,7 @@
         <v>19</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -34479,7 +34326,7 @@
         <v>23</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -34502,7 +34349,7 @@
         <v>23</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -34525,7 +34372,7 @@
         <v>23</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -34548,7 +34395,7 @@
         <v>19</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -34571,7 +34418,7 @@
         <v>19</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -34594,7 +34441,7 @@
         <v>19</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -34617,7 +34464,7 @@
         <v>23</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -34640,7 +34487,7 @@
         <v>23</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -34663,7 +34510,7 @@
         <v>19</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -34686,7 +34533,7 @@
         <v>19</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -34709,7 +34556,7 @@
         <v>23</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -34732,7 +34579,7 @@
         <v>23</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -34755,7 +34602,7 @@
         <v>23</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -34778,7 +34625,7 @@
         <v>23</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -34801,7 +34648,7 @@
         <v>23</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -34824,7 +34671,7 @@
         <v>19</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -34847,7 +34694,7 @@
         <v>19</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -34870,7 +34717,7 @@
         <v>19</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -34893,7 +34740,7 @@
         <v>19</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -34916,7 +34763,7 @@
         <v>19</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -34939,7 +34786,7 @@
         <v>23</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -34962,7 +34809,7 @@
         <v>23</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -34985,7 +34832,7 @@
         <v>23</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -35008,7 +34855,7 @@
         <v>23</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -35031,7 +34878,7 @@
         <v>23</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -35054,7 +34901,7 @@
         <v>23</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -35077,7 +34924,7 @@
         <v>19</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -35100,7 +34947,7 @@
         <v>23</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -35123,7 +34970,7 @@
         <v>19</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -35146,7 +34993,7 @@
         <v>23</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -35169,7 +35016,7 @@
         <v>23</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -35192,7 +35039,7 @@
         <v>23</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -35215,7 +35062,7 @@
         <v>23</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -35238,7 +35085,7 @@
         <v>23</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -35261,7 +35108,7 @@
         <v>23</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -35284,7 +35131,7 @@
         <v>23</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -35307,7 +35154,7 @@
         <v>23</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -35330,7 +35177,7 @@
         <v>23</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -35353,7 +35200,7 @@
         <v>23</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -35376,7 +35223,7 @@
         <v>23</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -35399,7 +35246,7 @@
         <v>19</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -35422,7 +35269,7 @@
         <v>23</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -35445,7 +35292,7 @@
         <v>19</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -35468,7 +35315,7 @@
         <v>23</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -35491,7 +35338,7 @@
         <v>23</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -35514,7 +35361,7 @@
         <v>23</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -35537,7 +35384,7 @@
         <v>23</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -35560,7 +35407,7 @@
         <v>23</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -35583,7 +35430,7 @@
         <v>23</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -35606,7 +35453,7 @@
         <v>23</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -35629,7 +35476,7 @@
         <v>23</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -35652,7 +35499,7 @@
         <v>19</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -35675,7 +35522,7 @@
         <v>23</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -35698,7 +35545,7 @@
         <v>23</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -35721,7 +35568,7 @@
         <v>23</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -35744,7 +35591,7 @@
         <v>23</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -35767,7 +35614,7 @@
         <v>23</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -35790,7 +35637,7 @@
         <v>23</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -35813,7 +35660,7 @@
         <v>23</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -35836,7 +35683,7 @@
         <v>19</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -35859,7 +35706,7 @@
         <v>23</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -35882,7 +35729,7 @@
         <v>19</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -35905,7 +35752,7 @@
         <v>23</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -35928,7 +35775,7 @@
         <v>19</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -35951,7 +35798,7 @@
         <v>23</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -35974,7 +35821,7 @@
         <v>23</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -35997,7 +35844,7 @@
         <v>23</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -36020,7 +35867,7 @@
         <v>23</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -36043,7 +35890,7 @@
         <v>23</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -36066,7 +35913,7 @@
         <v>23</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -36089,7 +35936,7 @@
         <v>23</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -36112,7 +35959,7 @@
         <v>23</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -36135,7 +35982,7 @@
         <v>23</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -36158,7 +36005,7 @@
         <v>23</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -36181,7 +36028,7 @@
         <v>23</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -36204,7 +36051,7 @@
         <v>19</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -36227,7 +36074,7 @@
         <v>19</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -36250,7 +36097,7 @@
         <v>19</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -36273,7 +36120,7 @@
         <v>23</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -36296,7 +36143,7 @@
         <v>23</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -36319,7 +36166,7 @@
         <v>23</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -36342,7 +36189,7 @@
         <v>23</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -36365,7 +36212,7 @@
         <v>23</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -36388,7 +36235,7 @@
         <v>23</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -36411,7 +36258,7 @@
         <v>23</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -36434,7 +36281,7 @@
         <v>19</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -36457,7 +36304,7 @@
         <v>23</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -36480,7 +36327,7 @@
         <v>23</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -36503,7 +36350,7 @@
         <v>23</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -36526,7 +36373,7 @@
         <v>23</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -36549,7 +36396,7 @@
         <v>23</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -36572,7 +36419,7 @@
         <v>23</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -36595,7 +36442,7 @@
         <v>19</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -36618,7 +36465,7 @@
         <v>23</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -36641,7 +36488,7 @@
         <v>23</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -36664,7 +36511,7 @@
         <v>23</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -36687,7 +36534,7 @@
         <v>23</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -36710,7 +36557,7 @@
         <v>19</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -36733,7 +36580,7 @@
         <v>23</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -36756,7 +36603,7 @@
         <v>23</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -36779,7 +36626,7 @@
         <v>23</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -36802,7 +36649,7 @@
         <v>23</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -36825,7 +36672,7 @@
         <v>23</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -36848,7 +36695,7 @@
         <v>23</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -36871,7 +36718,7 @@
         <v>23</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -36894,7 +36741,7 @@
         <v>23</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -36917,7 +36764,7 @@
         <v>19</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -36940,7 +36787,7 @@
         <v>23</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -36963,7 +36810,7 @@
         <v>23</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -36986,7 +36833,7 @@
         <v>23</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -37009,7 +36856,7 @@
         <v>23</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -37032,7 +36879,7 @@
         <v>23</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -37055,7 +36902,7 @@
         <v>23</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -37078,7 +36925,7 @@
         <v>23</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -37101,7 +36948,7 @@
         <v>23</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -37124,7 +36971,7 @@
         <v>23</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -37147,7 +36994,7 @@
         <v>23</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -37170,7 +37017,7 @@
         <v>23</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -37193,7 +37040,7 @@
         <v>23</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -37216,7 +37063,7 @@
         <v>23</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -37239,7 +37086,7 @@
         <v>19</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -37262,7 +37109,7 @@
         <v>23</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -37285,7 +37132,7 @@
         <v>23</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -37308,7 +37155,7 @@
         <v>19</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -37331,7 +37178,7 @@
         <v>23</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -37354,7 +37201,7 @@
         <v>23</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -37377,7 +37224,7 @@
         <v>19</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -37400,7 +37247,7 @@
         <v>23</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -37423,7 +37270,7 @@
         <v>23</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -37469,7 +37316,7 @@
         <v>23</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -37492,7 +37339,7 @@
         <v>23</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -37515,7 +37362,7 @@
         <v>23</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -37538,7 +37385,7 @@
         <v>23</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -37561,7 +37408,7 @@
         <v>23</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -37584,7 +37431,7 @@
         <v>23</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -37607,7 +37454,7 @@
         <v>23</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -37630,7 +37477,7 @@
         <v>23</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -37653,7 +37500,7 @@
         <v>19</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -37676,7 +37523,7 @@
         <v>23</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -37688,7 +37535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+    <sheetView topLeftCell="A362" workbookViewId="0">
       <selection activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
@@ -37708,34 +37555,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>1185</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1193</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -37743,7 +37590,7 @@
         <v>408</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -37751,7 +37598,7 @@
         <v>412</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -37759,7 +37606,7 @@
         <v>415</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -37792,16 +37639,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -38126,16 +37973,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -38737,7 +38584,7 @@
         <v>339</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>711</v>
@@ -39058,30 +38905,30 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -39278,16 +39125,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -39785,7 +39632,7 @@
         <v>282</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>711</v>
@@ -40695,7 +40542,7 @@
         <v>269</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>711</v>
@@ -40734,16 +40581,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -40835,7 +40682,7 @@
         <v>514</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>711</v>
@@ -41146,16 +40993,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -41326,16 +41173,16 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -41454,16 +41301,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -41602,16 +41449,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -41930,16 +41777,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -41970,16 +41817,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -41987,7 +41834,7 @@
         <v>419</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>1005</v>
@@ -42184,10 +42031,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -42645,7 +42492,7 @@
         <v>320</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>711</v>
@@ -42896,7 +42743,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>457</v>
@@ -43204,10 +43051,10 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -43339,7 +43186,7 @@
         <v>518</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>711</v>
@@ -43549,7 +43396,7 @@
         <v>323</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>711</v>
@@ -43758,16 +43605,16 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -43913,7 +43760,7 @@
         <v>109</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>624</v>
@@ -44278,16 +44125,16 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -44364,10 +44211,10 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -45190,16 +45037,16 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -45342,7 +45189,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>901</v>
@@ -45371,7 +45218,7 @@
         <v>352</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>711</v>
@@ -45397,7 +45244,7 @@
         <v>162</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>711</v>
@@ -45701,7 +45548,7 @@
         <v>50</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>624</v>
@@ -46137,7 +45984,7 @@
         <v>258</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>711</v>
@@ -46265,7 +46112,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>1005</v>
@@ -46293,7 +46140,7 @@
         <v>243</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>711</v>
@@ -46642,16 +46489,16 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
@@ -47078,16 +46925,16 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -47748,24 +47595,24 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>954</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -47836,10 +47683,10 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -48023,7 +47870,7 @@
         <v>954</v>
       </c>
       <c r="J522" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -48381,20 +48228,20 @@
         <v>411</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B541" s="24" t="s">
         <v>1007</v>
@@ -48402,7 +48249,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B542" s="24" t="s">
         <v>1009</v>
@@ -48410,7 +48257,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B543" s="28" t="s">
         <v>1011</v>
@@ -48418,15 +48265,15 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B544" s="27" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B545" s="24" t="s">
         <v>1014</v>
@@ -48434,7 +48281,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B546" s="24" t="s">
         <v>1016</v>
@@ -48442,7 +48289,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B547" s="24" t="s">
         <v>1018</v>
@@ -48450,15 +48297,15 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B548" s="27" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B549" s="24" t="s">
         <v>1020</v>
@@ -48466,7 +48313,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B550" s="24" t="s">
         <v>1021</v>
@@ -48474,7 +48321,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B551" s="24" t="s">
         <v>1023</v>
@@ -48482,7 +48329,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B552" s="24" t="s">
         <v>1024</v>
@@ -48490,7 +48337,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B553" s="24" t="s">
         <v>1025</v>
@@ -48498,7 +48345,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B554" s="24" t="s">
         <v>1026</v>
@@ -48506,15 +48353,15 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B555" s="27" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B556" s="24" t="s">
         <v>1027</v>
@@ -48522,7 +48369,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B557" s="24" t="s">
         <v>1029</v>
@@ -48530,7 +48377,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B558" s="24" t="s">
         <v>1030</v>
@@ -48538,23 +48385,23 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B559" s="27" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B560" s="27" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B561" s="24" t="s">
         <v>1031</v>
@@ -48562,7 +48409,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B562" s="24" t="s">
         <v>1032</v>
@@ -48570,7 +48417,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B563" s="24" t="s">
         <v>1033</v>
@@ -48578,7 +48425,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B564" s="24" t="s">
         <v>1035</v>
@@ -48586,7 +48433,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B565" s="24" t="s">
         <v>1036</v>
@@ -48594,15 +48441,15 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B566" s="27" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B567" s="24" t="s">
         <v>1037</v>
@@ -48610,7 +48457,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B568" s="24" t="s">
         <v>1038</v>
@@ -48618,15 +48465,15 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B569" s="27" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B570" s="24" t="s">
         <v>1039</v>
@@ -48634,7 +48481,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B571" s="24" t="s">
         <v>1040</v>
@@ -48642,7 +48489,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B572" s="24" t="s">
         <v>1041</v>
@@ -48650,7 +48497,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B573" s="24" t="s">
         <v>1042</v>
@@ -48658,7 +48505,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B574" s="24" t="s">
         <v>1043</v>
@@ -48666,23 +48513,23 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B575" s="27" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B576" s="27" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B577" s="24" t="s">
         <v>1044</v>
@@ -48690,55 +48537,55 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B578" s="27" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B579" s="27" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B580" s="27" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B581" s="27" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B582" s="27" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B583" s="27" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B584" s="24" t="s">
         <v>1045</v>
@@ -48746,39 +48593,39 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B585" s="27" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B586" s="27" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B587" s="27" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B588" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B589" s="24" t="s">
         <v>1046</v>
@@ -48786,23 +48633,23 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B590" s="27" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B591" s="27" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B592" s="24" t="s">
         <v>1047</v>
@@ -48810,39 +48657,39 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B593" s="27" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B594" s="27" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B595" s="27" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B596" s="27" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B597" s="24" t="s">
         <v>1048</v>
@@ -48850,39 +48697,39 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B598" s="27" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B599" s="27" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B600" s="27" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B601" s="27" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B602" s="24" t="s">
         <v>1049</v>
@@ -48890,15 +48737,15 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B603" s="27" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B604" s="24" t="s">
         <v>1050</v>
@@ -48906,7 +48753,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B605" s="24" t="s">
         <v>1051</v>
@@ -48914,63 +48761,63 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B606" s="27" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B607" s="27" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B608" s="27" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B609" s="27" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B610" s="27" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B611" s="27" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B612" s="27" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B613" s="24" t="s">
         <v>1053</v>
@@ -48978,23 +48825,23 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B614" s="27" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B615" s="27" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B616" s="24" t="s">
         <v>1054</v>
@@ -49002,15 +48849,15 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B617" s="27" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B618" s="24" t="s">
         <v>1055</v>
@@ -49018,47 +48865,47 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="4" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B619" s="27" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B620" s="27" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B621" s="27" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B622" s="27" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B623" s="27" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B624" s="24" t="s">
         <v>1056</v>
@@ -49066,7 +48913,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B625" s="24" t="s">
         <v>1057</v>
@@ -49074,7 +48921,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B626" s="24" t="s">
         <v>1058</v>
@@ -49082,7 +48929,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B627" s="24" t="s">
         <v>1059</v>
@@ -49090,7 +48937,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B628" s="24" t="s">
         <v>1060</v>
@@ -49098,7 +48945,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B629" s="24" t="s">
         <v>1061</v>
@@ -49106,7 +48953,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B630" s="24" t="s">
         <v>1062</v>
@@ -49114,7 +48961,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B631" s="24" t="s">
         <v>1063</v>
@@ -49122,7 +48969,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B632" s="24" t="s">
         <v>1064</v>
@@ -49130,23 +48977,23 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B633" s="27" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B634" s="27" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B635" s="24" t="s">
         <v>1065</v>
@@ -49154,7 +49001,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B636" s="24" t="s">
         <v>1066</v>
@@ -49162,7 +49009,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B637" s="24" t="s">
         <v>1067</v>
@@ -49170,7 +49017,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B638" s="24" t="s">
         <v>1068</v>
@@ -49178,55 +49025,55 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B639" s="27" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B640" s="27" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B641" s="27" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B642" s="27" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B643" s="27" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B644" s="27" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B645" s="24" t="s">
         <v>1069</v>
@@ -49234,15 +49081,15 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B646" s="27" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B647" s="24" t="s">
         <v>1070</v>
@@ -49250,7 +49097,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B648" s="24" t="s">
         <v>1071</v>
@@ -49258,7 +49105,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B649" s="24" t="s">
         <v>1072</v>
@@ -49266,23 +49113,23 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B650" s="27" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B651" s="27" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B652" s="24" t="s">
         <v>1073</v>
@@ -49290,7 +49137,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B653" s="24" t="s">
         <v>1074</v>
@@ -49298,7 +49145,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B654" s="24" t="s">
         <v>1075</v>
@@ -49306,7 +49153,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B655" s="24" t="s">
         <v>1076</v>
@@ -49314,15 +49161,15 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B656" s="27" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B657" s="24" t="s">
         <v>1077</v>
@@ -49330,7 +49177,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B658" s="24" t="s">
         <v>1078</v>
@@ -49338,15 +49185,15 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B659" s="27" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B660" s="24" t="s">
         <v>1079</v>
@@ -49354,31 +49201,31 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B661" s="27" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B662" s="27" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B663" s="27" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B664" s="24" t="s">
         <v>1080</v>
@@ -49386,7 +49233,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B665" s="24" t="s">
         <v>1081</v>
@@ -49394,7 +49241,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B666" s="24" t="s">
         <v>1082</v>
@@ -49402,23 +49249,23 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B667" s="27" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B668" s="27" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B669" s="24" t="s">
         <v>1083</v>
@@ -49426,7 +49273,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B670" s="24" t="s">
         <v>1084</v>
@@ -49434,23 +49281,23 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B671" s="27" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B672" s="27" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B673" s="24" t="s">
         <v>1085</v>
@@ -49458,15 +49305,15 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B674" s="27" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B675" s="24" t="s">
         <v>1086</v>
@@ -49474,23 +49321,23 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B676" s="27" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B677" s="27" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B678" s="24" t="s">
         <v>1087</v>
@@ -49498,7 +49345,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B679" s="24" t="s">
         <v>1088</v>
@@ -49506,7 +49353,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B680" s="24" t="s">
         <v>1089</v>
@@ -49514,7 +49361,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B681" s="24" t="s">
         <v>1090</v>
@@ -49522,23 +49369,23 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B682" s="27" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B683" s="27" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B684" s="24" t="s">
         <v>1091</v>
@@ -49546,7 +49393,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B685" s="24" t="s">
         <v>1092</v>
@@ -49554,7 +49401,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B686" s="24" t="s">
         <v>1093</v>
@@ -49562,39 +49409,39 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B687" s="27" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B688" s="27" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B689" s="27" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B690" s="27" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B691" s="24" t="s">
         <v>1094</v>
@@ -49602,7 +49449,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B692" s="24" t="s">
         <v>1095</v>
@@ -49610,7 +49457,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B693" s="24" t="s">
         <v>1096</v>
@@ -49618,23 +49465,23 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B694" s="27" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B695" s="27" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B696" s="24" t="s">
         <v>1097</v>
@@ -49642,7 +49489,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B697" s="24" t="s">
         <v>1098</v>
@@ -49650,7 +49497,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B698" s="24" t="s">
         <v>1099</v>
@@ -49658,7 +49505,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B699" s="24" t="s">
         <v>1100</v>
@@ -49666,15 +49513,15 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B700" s="27" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B701" s="24" t="s">
         <v>1101</v>
@@ -49682,7 +49529,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B702" s="24" t="s">
         <v>1102</v>
@@ -49690,39 +49537,39 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B703" s="27" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B704" s="27" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B705" s="27" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B706" s="27" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B707" s="24" t="s">
         <v>1103</v>
@@ -49730,15 +49577,15 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B708" s="27" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B709" s="24" t="s">
         <v>1104</v>
@@ -49746,7 +49593,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B710" s="24" t="s">
         <v>1105</v>
@@ -49754,7 +49601,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B711" s="24" t="s">
         <v>1106</v>
@@ -49762,7 +49609,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B712" s="24" t="s">
         <v>1107</v>
@@ -49770,39 +49617,39 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B713" s="27" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B714" s="27" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B715" s="27" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B716" s="27" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>1108</v>
@@ -49810,7 +49657,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B718" s="24" t="s">
         <v>1109</v>
@@ -49818,15 +49665,15 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B719" s="27" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B720" s="24" t="s">
         <v>1110</v>
@@ -49834,7 +49681,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B721" s="24" t="s">
         <v>1111</v>
@@ -49842,7 +49689,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B722" s="24" t="s">
         <v>1112</v>
@@ -49850,15 +49697,15 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B723" s="27" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B724" s="24" t="s">
         <v>1113</v>
@@ -49866,7 +49713,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B725" s="24" t="s">
         <v>1114</v>
@@ -49874,15 +49721,15 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B726" s="27" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B727" s="24" t="s">
         <v>1115</v>
@@ -49890,15 +49737,15 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B728" s="27" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B729" s="24" t="s">
         <v>1116</v>
@@ -49906,23 +49753,23 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B730" s="27" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B731" s="27" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B732" s="24" t="s">
         <v>1117</v>
@@ -49930,7 +49777,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B733" s="24" t="s">
         <v>1118</v>
@@ -49938,7 +49785,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B734" s="24" t="s">
         <v>1119</v>
@@ -49946,7 +49793,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B735" s="24" t="s">
         <v>1120</v>
@@ -49954,31 +49801,31 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B736" s="27" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B737" s="27" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B738" s="27" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B739" s="24" t="s">
         <v>1121</v>
@@ -49986,7 +49833,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B740" s="24" t="s">
         <v>1122</v>
@@ -49994,7 +49841,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B741" s="24" t="s">
         <v>1123</v>
@@ -50002,15 +49849,15 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B742" s="27" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B743" s="24" t="s">
         <v>1124</v>
@@ -50018,7 +49865,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B744" s="24" t="s">
         <v>1125</v>
@@ -50026,15 +49873,15 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B745" s="27" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B746" s="24" t="s">
         <v>1126</v>
@@ -50042,15 +49889,15 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B747" s="27" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B748" s="24" t="s">
         <v>1127</v>
@@ -50058,15 +49905,15 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B749" s="27" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B750" s="24" t="s">
         <v>1128</v>
@@ -50074,7 +49921,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B751" s="24" t="s">
         <v>1129</v>
@@ -50082,39 +49929,39 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B752" s="27" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B753" s="27" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B754" s="27" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B755" s="27" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B756" s="24" t="s">
         <v>1130</v>
@@ -50122,7 +49969,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B757" s="24" t="s">
         <v>1131</v>
@@ -50130,7 +49977,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B758" s="24" t="s">
         <v>1132</v>
@@ -50138,7 +49985,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B759" s="24" t="s">
         <v>1133</v>
@@ -50146,7 +49993,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B760" s="24" t="s">
         <v>1134</v>
@@ -50154,39 +50001,39 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B761" s="27" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B762" s="27" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B763" s="27" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B764" s="27" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>1135</v>
@@ -50194,7 +50041,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B766" s="28" t="s">
         <v>1136</v>
@@ -50202,7 +50049,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B767" s="24" t="s">
         <v>1137</v>
@@ -50221,8 +50068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B228"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50248,7 +50095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>1008</v>
@@ -50260,7 +50107,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>1010</v>
@@ -50272,7 +50119,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>1012</v>
@@ -50284,7 +50131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1013</v>
@@ -50296,7 +50143,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>1015</v>
@@ -50308,7 +50155,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>1017</v>
@@ -50320,7 +50167,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>1019</v>
@@ -50332,7 +50179,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>1019</v>
@@ -50344,7 +50191,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>1019</v>
@@ -50356,7 +50203,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>1022</v>
@@ -50368,7 +50215,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>1019</v>
@@ -50380,7 +50227,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>1013</v>
@@ -50392,7 +50239,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>1015</v>
@@ -50404,7 +50251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>1022</v>
@@ -50416,7 +50263,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>1019</v>
@@ -50428,7 +50275,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>1028</v>
@@ -50440,7 +50287,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>1008</v>
@@ -50452,7 +50299,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>1019</v>
@@ -50464,7 +50311,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>1022</v>
@@ -50476,7 +50323,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>1015</v>
@@ -50488,7 +50335,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>1019</v>
@@ -50500,7 +50347,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>1017</v>
@@ -50512,7 +50359,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>1034</v>
@@ -50524,7 +50371,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>1008</v>
@@ -50536,7 +50383,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>1019</v>
@@ -50548,7 +50395,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>1010</v>
@@ -50560,7 +50407,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>1017</v>
@@ -50572,7 +50419,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>1019</v>
@@ -50584,7 +50431,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>1019</v>
@@ -50596,7 +50443,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>1008</v>
@@ -50608,7 +50455,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>1010</v>
@@ -50620,7 +50467,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>1017</v>
@@ -50632,7 +50479,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>1008</v>
@@ -50644,7 +50491,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>1017</v>
@@ -50656,7 +50503,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>1008</v>
@@ -50668,7 +50515,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>1017</v>
@@ -50680,7 +50527,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>1034</v>
@@ -50692,7 +50539,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>1017</v>
@@ -50704,7 +50551,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>1019</v>
@@ -50716,7 +50563,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>1017</v>
@@ -50728,7 +50575,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>1017</v>
@@ -50740,7 +50587,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>1019</v>
@@ -50752,7 +50599,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>1008</v>
@@ -50764,7 +50611,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>1019</v>
@@ -50776,7 +50623,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>1017</v>
@@ -50788,7 +50635,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>1017</v>
@@ -50800,7 +50647,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>1017</v>
@@ -50812,7 +50659,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>1013</v>
@@ -50824,7 +50671,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>1019</v>
@@ -50836,7 +50683,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>1017</v>
@@ -50848,7 +50695,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>1010</v>
@@ -50860,7 +50707,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>1019</v>
@@ -50872,7 +50719,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>1028</v>
@@ -50884,7 +50731,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>1010</v>
@@ -50896,7 +50743,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>1015</v>
@@ -50908,7 +50755,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>1017</v>
@@ -50920,7 +50767,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>1019</v>
@@ -50932,7 +50779,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>1019</v>
@@ -50944,7 +50791,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>1008</v>
@@ -50956,7 +50803,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>1019</v>
@@ -50968,7 +50815,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>1012</v>
@@ -50980,7 +50827,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>1019</v>
@@ -50992,7 +50839,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>1017</v>
@@ -51004,7 +50851,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>1017</v>
@@ -51016,7 +50863,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>1052</v>
@@ -51028,7 +50875,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>1017</v>
@@ -51040,7 +50887,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>1015</v>
@@ -51052,7 +50899,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>1013</v>
@@ -51064,7 +50911,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>1015</v>
@@ -51076,7 +50923,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>1015</v>
@@ -51088,7 +50935,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>1019</v>
@@ -51100,7 +50947,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>1013</v>
@@ -51112,7 +50959,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>1017</v>
@@ -51124,7 +50971,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>1017</v>
@@ -51136,7 +50983,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>1028</v>
@@ -51148,7 +50995,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>1022</v>
@@ -51160,7 +51007,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>1015</v>
@@ -51172,7 +51019,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>1017</v>
@@ -51184,7 +51031,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>1015</v>
@@ -51196,7 +51043,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>1015</v>
@@ -51208,7 +51055,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>1034</v>
@@ -51220,7 +51067,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>1019</v>
@@ -51232,7 +51079,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>1019</v>
@@ -51244,7 +51091,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>1013</v>
@@ -51256,7 +51103,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>1019</v>
@@ -51268,7 +51115,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>1015</v>
@@ -51280,7 +51127,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>1017</v>
@@ -51292,7 +51139,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>1017</v>
@@ -51304,7 +51151,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>1019</v>
@@ -51316,7 +51163,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>1019</v>
@@ -51328,7 +51175,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>1019</v>
@@ -51340,7 +51187,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>1008</v>
@@ -51352,7 +51199,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>1010</v>
@@ -51364,7 +51211,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>1015</v>
@@ -51376,7 +51223,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>1008</v>
@@ -51388,7 +51235,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>1008</v>
@@ -51400,7 +51247,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>1008</v>
@@ -51412,7 +51259,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>1028</v>
@@ -51424,7 +51271,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>1015</v>
@@ -51436,7 +51283,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>1015</v>
@@ -51448,7 +51295,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>1028</v>
@@ -51460,7 +51307,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>1015</v>
@@ -51472,7 +51319,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>1019</v>
@@ -51484,7 +51331,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>1008</v>
@@ -51496,7 +51343,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>1015</v>
@@ -51508,7 +51355,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>1028</v>
@@ -51520,7 +51367,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C108" s="31" t="s">
         <v>1022</v>
@@ -51532,7 +51379,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C109" s="31" t="s">
         <v>1017</v>
@@ -51544,7 +51391,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C110" s="31" t="s">
         <v>1013</v>
@@ -51556,7 +51403,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>1008</v>
@@ -51568,7 +51415,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C112" s="31" t="s">
         <v>1008</v>
@@ -51580,7 +51427,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>1028</v>
@@ -51592,7 +51439,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>1022</v>
@@ -51604,7 +51451,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>1008</v>
@@ -51616,7 +51463,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>1052</v>
@@ -51628,7 +51475,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C117" s="31" t="s">
         <v>1028</v>
@@ -51640,7 +51487,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C118" s="31" t="s">
         <v>1017</v>
@@ -51652,7 +51499,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C119" s="31" t="s">
         <v>1017</v>
@@ -51664,7 +51511,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C120" s="31" t="s">
         <v>1012</v>
@@ -51676,7 +51523,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C121" s="31" t="s">
         <v>1015</v>
@@ -51688,7 +51535,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C122" s="31" t="s">
         <v>1052</v>
@@ -51700,7 +51547,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C123" s="31" t="s">
         <v>1015</v>
@@ -51712,7 +51559,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C124" s="31" t="s">
         <v>1008</v>
@@ -51724,7 +51571,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C125" s="31" t="s">
         <v>1010</v>
@@ -51736,7 +51583,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C126" s="31" t="s">
         <v>1017</v>
@@ -51748,7 +51595,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C127" s="31" t="s">
         <v>1017</v>
@@ -51760,7 +51607,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C128" s="31" t="s">
         <v>1008</v>
@@ -51772,7 +51619,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C129" s="31" t="s">
         <v>1008</v>
@@ -51784,7 +51631,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C130" s="31" t="s">
         <v>1017</v>
@@ -51796,7 +51643,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C131" s="31" t="s">
         <v>1015</v>
@@ -51808,7 +51655,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C132" s="31" t="s">
         <v>1013</v>
@@ -51820,7 +51667,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C133" s="31" t="s">
         <v>1019</v>
@@ -51832,7 +51679,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C134" s="31" t="s">
         <v>1017</v>
@@ -51844,7 +51691,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C135" s="31" t="s">
         <v>1017</v>
@@ -51856,7 +51703,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C136" s="31" t="s">
         <v>1017</v>
@@ -51868,7 +51715,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C137" s="31" t="s">
         <v>1019</v>
@@ -51880,7 +51727,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C138" s="31" t="s">
         <v>1013</v>
@@ -51892,7 +51739,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C139" s="31" t="s">
         <v>1022</v>
@@ -51904,7 +51751,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C140" s="31" t="s">
         <v>1015</v>
@@ -51916,7 +51763,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C141" s="31" t="s">
         <v>1008</v>
@@ -51928,7 +51775,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C142" s="31" t="s">
         <v>1019</v>
@@ -51940,7 +51787,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C143" s="31" t="s">
         <v>1012</v>
@@ -51952,7 +51799,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C144" s="31" t="s">
         <v>1017</v>
@@ -51964,7 +51811,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C145" s="31" t="s">
         <v>1017</v>
@@ -51976,7 +51823,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C146" s="31" t="s">
         <v>1013</v>
@@ -51988,7 +51835,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C147" s="31" t="s">
         <v>1008</v>
@@ -52000,7 +51847,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C148" s="31" t="s">
         <v>1015</v>
@@ -52012,7 +51859,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C149" s="31" t="s">
         <v>1019</v>
@@ -52024,7 +51871,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C150" s="31" t="s">
         <v>1013</v>
@@ -52036,7 +51883,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C151" s="31" t="s">
         <v>1013</v>
@@ -52048,7 +51895,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C152" s="31" t="s">
         <v>1019</v>
@@ -52060,7 +51907,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C153" s="31" t="s">
         <v>1017</v>
@@ -52072,7 +51919,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C154" s="31" t="s">
         <v>1017</v>
@@ -52084,7 +51931,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C155" s="31" t="s">
         <v>1013</v>
@@ -52096,7 +51943,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C156" s="31" t="s">
         <v>1015</v>
@@ -52108,7 +51955,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C157" s="31" t="s">
         <v>1028</v>
@@ -52120,7 +51967,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>1008</v>
@@ -52132,7 +51979,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C159" s="31" t="s">
         <v>1013</v>
@@ -52144,7 +51991,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C160" s="31" t="s">
         <v>1019</v>
@@ -52156,7 +52003,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C161" s="31" t="s">
         <v>1013</v>
@@ -52168,7 +52015,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C162" s="31" t="s">
         <v>1019</v>
@@ -52180,7 +52027,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C163" s="31" t="s">
         <v>1019</v>
@@ -52192,7 +52039,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C164" s="31" t="s">
         <v>1008</v>
@@ -52204,7 +52051,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C165" s="31" t="s">
         <v>1010</v>
@@ -52216,7 +52063,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>1015</v>
@@ -52228,7 +52075,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C167" s="31" t="s">
         <v>1019</v>
@@ -52240,7 +52087,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C168" s="31" t="s">
         <v>1028</v>
@@ -52252,7 +52099,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C169" s="31" t="s">
         <v>1017</v>
@@ -52264,7 +52111,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C170" s="31" t="s">
         <v>1010</v>
@@ -52276,7 +52123,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C171" s="31" t="s">
         <v>1022</v>
@@ -52288,7 +52135,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C172" s="31" t="s">
         <v>1017</v>
@@ -52300,7 +52147,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C173" s="31" t="s">
         <v>1017</v>
@@ -52312,7 +52159,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C174" s="31" t="s">
         <v>1019</v>
@@ -52324,7 +52171,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C175" s="31" t="s">
         <v>1019</v>
@@ -52336,7 +52183,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C176" s="31" t="s">
         <v>1034</v>
@@ -52348,7 +52195,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C177" s="31" t="s">
         <v>1019</v>
@@ -52360,7 +52207,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C178" s="31" t="s">
         <v>1013</v>
@@ -52372,7 +52219,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C179" s="31" t="s">
         <v>1015</v>
@@ -52384,7 +52231,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C180" s="31" t="s">
         <v>1017</v>
@@ -52396,7 +52243,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C181" s="31" t="s">
         <v>1028</v>
@@ -52408,7 +52255,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C182" s="31" t="s">
         <v>1017</v>
@@ -52420,7 +52267,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C183" s="31" t="s">
         <v>1010</v>
@@ -52432,7 +52279,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C184" s="31" t="s">
         <v>1017</v>
@@ -52444,7 +52291,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C185" s="31" t="s">
         <v>1017</v>
@@ -52456,7 +52303,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C186" s="31" t="s">
         <v>1008</v>
@@ -52468,7 +52315,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C187" s="31" t="s">
         <v>1010</v>
@@ -52480,7 +52327,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C188" s="31" t="s">
         <v>1010</v>
@@ -52492,7 +52339,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C189" s="31" t="s">
         <v>1013</v>
@@ -52504,7 +52351,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C190" s="31" t="s">
         <v>1017</v>
@@ -52516,7 +52363,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C191" s="31" t="s">
         <v>1017</v>
@@ -52528,7 +52375,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C192" s="31" t="s">
         <v>1015</v>
@@ -52540,7 +52387,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C193" s="31" t="s">
         <v>1008</v>
@@ -52552,7 +52399,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C194" s="31" t="s">
         <v>1017</v>
@@ -52564,7 +52411,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C195" s="31" t="s">
         <v>1019</v>
@@ -52576,7 +52423,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C196" s="31" t="s">
         <v>1017</v>
@@ -52588,7 +52435,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C197" s="31" t="s">
         <v>1015</v>
@@ -52600,7 +52447,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C198" s="31" t="s">
         <v>1015</v>
@@ -52612,7 +52459,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C199" s="31" t="s">
         <v>1028</v>
@@ -52624,7 +52471,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C200" s="31" t="s">
         <v>1008</v>
@@ -52636,7 +52483,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C201" s="31" t="s">
         <v>1022</v>
@@ -52648,7 +52495,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C202" s="31" t="s">
         <v>1017</v>
@@ -52660,7 +52507,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C203" s="31" t="s">
         <v>1008</v>
@@ -52672,7 +52519,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C204" s="31" t="s">
         <v>1017</v>
@@ -52684,7 +52531,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C205" s="31" t="s">
         <v>1013</v>
@@ -52696,7 +52543,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C206" s="31" t="s">
         <v>1019</v>
@@ -52708,7 +52555,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C207" s="31" t="s">
         <v>1012</v>
@@ -52720,7 +52567,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C208" s="31" t="s">
         <v>1028</v>
@@ -52732,7 +52579,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C209" s="31" t="s">
         <v>1022</v>
@@ -52744,7 +52591,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C210" s="31" t="s">
         <v>1019</v>
@@ -52756,7 +52603,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C211" s="31" t="s">
         <v>1013</v>
@@ -52768,7 +52615,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C212" s="31" t="s">
         <v>1017</v>
@@ -52780,7 +52627,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C213" s="31" t="s">
         <v>1022</v>
@@ -52792,7 +52639,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C214" s="31" t="s">
         <v>1028</v>
@@ -52804,7 +52651,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C215" s="31" t="s">
         <v>1015</v>
@@ -52816,7 +52663,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C216" s="31" t="s">
         <v>1034</v>
@@ -52828,7 +52675,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C217" s="31" t="s">
         <v>1019</v>
@@ -52840,7 +52687,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C218" s="31" t="s">
         <v>1022</v>
@@ -52852,7 +52699,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C219" s="31" t="s">
         <v>1013</v>
@@ -52864,7 +52711,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C220" s="31" t="s">
         <v>1019</v>
@@ -52876,7 +52723,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C221" s="31" t="s">
         <v>1008</v>
@@ -52888,7 +52735,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C222" s="31" t="s">
         <v>1019</v>
@@ -52900,7 +52747,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C223" s="31" t="s">
         <v>1013</v>
@@ -52912,7 +52759,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C224" s="31" t="s">
         <v>1028</v>
@@ -52924,7 +52771,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C225" s="31" t="s">
         <v>1012</v>
@@ -52936,7 +52783,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C226" s="31" t="s">
         <v>1028</v>
@@ -52948,7 +52795,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C227" s="31" t="s">
         <v>1017</v>
@@ -52960,7 +52807,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C228" s="31" t="s">
         <v>1017</v>
